--- a/exports/temp/record.xlsx
+++ b/exports/temp/record.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"> 供应商代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,10 @@
   </si>
   <si>
     <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,23 +492,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="14.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="1" max="8" width="14.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,58 +531,61 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E12" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.15">

--- a/exports/temp/record.xlsx
+++ b/exports/temp/record.xlsx
@@ -130,7 +130,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -144,6 +144,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,15 +500,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="8" width="14.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.25" style="6" customWidth="1"/>
     <col min="11" max="11" width="13.75" style="2" customWidth="1"/>
     <col min="12" max="12" width="14.75" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
@@ -534,10 +538,10 @@
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
